--- a/AAII_Financials/Quarterly/FBIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBIN_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EE6393-DBC2-43A8-B677-CDD2721BB502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="FBIN" sheetId="6" r:id="rId1"/>
@@ -18,12 +17,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>FBHS</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,9 +654,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -700,359 +665,371 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4723000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2053700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2111000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1917300</v>
       </c>
-      <c r="G8" s="3">
-        <v>1962700</v>
-      </c>
       <c r="H8" s="3">
+        <v>4801100</v>
+      </c>
+      <c r="I8" s="3">
         <v>1986300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1936100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1771000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1659700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1652100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1375800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1402700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1470500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1459000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1507200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1327900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1420700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1380800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1429000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1254600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1382500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1348600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1365400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1186800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1301600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1279000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2790100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1310200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1347900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1237800</v>
       </c>
-      <c r="G9" s="3">
-        <v>1271900</v>
-      </c>
       <c r="H9" s="3">
+        <v>2840600</v>
+      </c>
+      <c r="I9" s="3">
         <v>1280000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1230300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1126900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1052000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1071500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>892900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>909500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>934600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>934800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>969600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>869100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>920300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>880800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>898900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>814600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>885700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>843200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>850500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>768500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>826400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>798200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1932900</v>
+      </c>
+      <c r="E10" s="3">
         <v>743500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>763100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>679500</v>
       </c>
-      <c r="G10" s="3">
-        <v>690800</v>
-      </c>
       <c r="H10" s="3">
+        <v>1960500</v>
+      </c>
+      <c r="I10" s="3">
         <v>706300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>705800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>644100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>607700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>580600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>482900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>493200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>535900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>524200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>537600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>458800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>500400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>500000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>530100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>440000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>496800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>505400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>514900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>418300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>475200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>480800</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1081,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1161,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1241,168 +1222,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E14" s="3">
         <v>30200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>28300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
-        <v>2000</v>
-      </c>
       <c r="H14" s="3">
+        <v>9300</v>
+      </c>
+      <c r="I14" s="3">
         <v>3600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>23400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>14000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>23000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>35000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>43400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>38400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>16300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>18100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>6100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2600</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E15" s="3">
         <v>16800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>16100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>16000</v>
       </c>
-      <c r="G15" s="3">
-        <v>15600</v>
-      </c>
       <c r="H15" s="3">
+        <v>46400</v>
+      </c>
+      <c r="I15" s="3">
         <v>15900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>16000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>16600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10500</v>
-      </c>
-      <c r="M15" s="3">
-        <v>10300</v>
       </c>
       <c r="N15" s="3">
         <v>10300</v>
       </c>
       <c r="O15" s="3">
+        <v>10300</v>
+      </c>
+      <c r="P15" s="3">
         <v>11400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>9900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>10100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>10000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>10800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>8900</v>
-      </c>
-      <c r="U15" s="3">
-        <v>8200</v>
       </c>
       <c r="V15" s="3">
         <v>8200</v>
       </c>
       <c r="W15" s="3">
+        <v>8200</v>
+      </c>
+      <c r="X15" s="3">
         <v>8100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>7500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>8000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>8100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>7700</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1428,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3948700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1772500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1826900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1663900</v>
       </c>
-      <c r="G17" s="3">
-        <v>1702200</v>
-      </c>
       <c r="H17" s="3">
+        <v>3990000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1699700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1641200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1522600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1426500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1411900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1202800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1247700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1278000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1291000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1304800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1192300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1280600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1233700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1240400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1135200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1219700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1149100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1156200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1071900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1135200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1095900</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>774300</v>
+      </c>
+      <c r="E18" s="3">
         <v>281200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>284100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>253400</v>
       </c>
-      <c r="G18" s="3">
-        <v>260500</v>
-      </c>
       <c r="H18" s="3">
+        <v>811100</v>
+      </c>
+      <c r="I18" s="3">
         <v>286600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>294900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>248400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>233200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>240200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>173000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>155000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>192500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>168000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>202400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>135600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>140100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>147100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>188600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>119400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>162800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>199500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>209200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>114900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>166400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>183100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1618,408 +1615,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E20" s="3">
         <v>2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
-        <v>-200</v>
-      </c>
       <c r="H20" s="3">
-        <v>1300</v>
+        <v>-400</v>
       </c>
       <c r="I20" s="3">
         <v>1300</v>
       </c>
       <c r="J20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-31200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>9600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-7500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>977900</v>
+      </c>
+      <c r="E21" s="3">
         <v>331900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>331200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>301600</v>
       </c>
-      <c r="G21" s="3">
-        <v>308000</v>
-      </c>
       <c r="H21" s="3">
+        <v>999800</v>
+      </c>
+      <c r="I21" s="3">
         <v>334100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>343700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>292800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>279700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>281600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>218300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>198600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>201300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>205000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>241300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>174600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>181300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>194200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>229900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>155700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>189300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>234000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>243700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>147500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>197800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>212400</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>119200</v>
+      </c>
+      <c r="E22" s="3">
         <v>33100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>30500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>21800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>84300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>20600</v>
+      </c>
+      <c r="J22" s="3">
         <v>21200</v>
       </c>
-      <c r="H22" s="3">
-        <v>20600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>21200</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>21400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>20100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>22200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>22100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>22400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>23600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>24500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>23700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>23400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>19000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>17400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>14700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>12900</v>
-      </c>
-      <c r="X22" s="3">
-        <v>12300</v>
       </c>
       <c r="Y22" s="3">
         <v>12300</v>
       </c>
       <c r="Z22" s="3">
+        <v>12300</v>
+      </c>
+      <c r="AA22" s="3">
         <v>11900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>11600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>667100</v>
+      </c>
+      <c r="E23" s="3">
         <v>250200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>253800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>232900</v>
       </c>
-      <c r="G23" s="3">
-        <v>239100</v>
-      </c>
       <c r="H23" s="3">
+        <v>726400</v>
+      </c>
+      <c r="I23" s="3">
         <v>267300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>275000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>223700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>213600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>222200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>156000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>139000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>138900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>144700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>178600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>113100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>117200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>137700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>174600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>107500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>142400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>189400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>199200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>103800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>153200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>170700</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>127200</v>
+      </c>
+      <c r="E24" s="3">
         <v>46000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>61800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>52000</v>
       </c>
-      <c r="G24" s="3">
-        <v>63800</v>
-      </c>
       <c r="H24" s="3">
+        <v>166700</v>
+      </c>
+      <c r="I24" s="3">
         <v>65200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>57800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>45900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>47100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>54000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>37800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>29900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>34900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>39000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>41500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>28600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>28700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>40900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>44900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>27000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>40100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>59800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>58900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>26400</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>48800</v>
       </c>
       <c r="AB24" s="3">
         <v>48800</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>48800</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2098,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>539900</v>
+      </c>
+      <c r="E26" s="3">
         <v>204200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>192000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>180900</v>
       </c>
-      <c r="G26" s="3">
-        <v>175300</v>
-      </c>
       <c r="H26" s="3">
+        <v>559700</v>
+      </c>
+      <c r="I26" s="3">
         <v>202100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>217200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>177800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>166500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>168200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>118200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>109100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>104000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>105700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>137100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>84500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>88500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>96800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>129700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>80500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>102300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>129600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>140300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>77400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>104400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>539900</v>
+      </c>
+      <c r="E27" s="3">
         <v>204200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>192000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>180900</v>
       </c>
-      <c r="G27" s="3">
-        <v>175300</v>
-      </c>
       <c r="H27" s="3">
+        <v>559700</v>
+      </c>
+      <c r="I27" s="3">
         <v>202100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>217200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>177800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>163600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>164600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>115800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>109100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>104100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>105600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>137500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>84700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>88400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>96700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>129600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>80600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>102300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>129500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>140300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>77400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>104300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2338,31 +2360,34 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>146800</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>212700</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2370,14 +2395,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2389,37 +2414,40 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-3200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>3100</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-5600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>25700</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z29" s="3" t="s">
+      <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-700</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2498,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2578,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
-        <v>200</v>
-      </c>
       <c r="H32" s="3">
-        <v>-1300</v>
+        <v>400</v>
       </c>
       <c r="I32" s="3">
         <v>-1300</v>
       </c>
       <c r="J32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K32" s="3">
         <v>3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>31200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-9600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>7500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>686700</v>
+      </c>
+      <c r="E33" s="3">
         <v>204200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>192000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>180900</v>
       </c>
-      <c r="G33" s="3">
-        <v>175300</v>
-      </c>
       <c r="H33" s="3">
+        <v>772400</v>
+      </c>
+      <c r="I33" s="3">
         <v>202100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>217200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>177800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>163600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>164600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>115800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>109100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>104100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>105600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>137500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>84700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>85200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>99800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>129600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>75000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>128000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>129500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>137700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>77400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>103600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>123400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2818,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>686700</v>
+      </c>
+      <c r="E35" s="3">
         <v>204200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>192000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>180900</v>
       </c>
-      <c r="G35" s="3">
-        <v>175300</v>
-      </c>
       <c r="H35" s="3">
+        <v>772400</v>
+      </c>
+      <c r="I35" s="3">
         <v>202100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>217200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>177800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>163600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>164600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>115800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>109100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>104100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>105600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>137500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>84700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>85200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>99800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>129600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>75000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>128000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>129500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>137700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>77400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>103600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>123400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3013,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3043,88 +3093,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>642500</v>
+      </c>
+      <c r="E41" s="3">
         <v>345300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>360600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>378200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>471500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>460700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>460000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>356100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>419100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>464500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>398400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>359700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>387900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>336200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>276300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>281200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>262900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>389900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>345500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>244400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>323000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>277100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>252700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>210800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>251500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>278600</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3203,328 +3257,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>521800</v>
+      </c>
+      <c r="E43" s="3">
         <v>936100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>998500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1011600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>885700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>921800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>844600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>828500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>734900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>765200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>657700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>678200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>624800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>640100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>706200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>650100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>571700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>635400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>657500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>631500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>555300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>594700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>595700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>564900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>550700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>568800</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1021300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1502300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1446700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1334700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1193800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1128300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1046800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>958400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>867200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>738300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>732300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>703100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>718600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>758800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>741900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>737900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>678900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>684300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>627000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>619200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>580800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>600100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>581400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>558800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>531100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>562500</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>274800</v>
+      </c>
+      <c r="E45" s="3">
         <v>223900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>258000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>232200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>193500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>215200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>197500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>202900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>187300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>170000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>168900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>173000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>166900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>171600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>192500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>178800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>172600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>180600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>175500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>149400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>142600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>126400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>123300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>121600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>111900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2460400</v>
+      </c>
+      <c r="E46" s="3">
         <v>3007600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3063800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2956700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2744500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2726000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2548900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2345900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2208500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2138000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1957300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1914000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1898200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1906700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1916900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1848000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1686100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1890200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1805500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1644500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1601700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1598300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1553100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1456100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1445200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1539700</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3603,168 +3672,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>902600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1274700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1266800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1248300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1201200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1134100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1107400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1084300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1087600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>958600</v>
       </c>
       <c r="M48" s="3">
         <v>958600</v>
       </c>
       <c r="N48" s="3">
+        <v>958600</v>
+      </c>
+      <c r="O48" s="3">
         <v>966900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>989800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>966200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>978100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>981100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>813400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>776300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>737600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>742800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>740000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>690600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>675600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>665700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>662500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>642900</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2641500</v>
+      </c>
+      <c r="E49" s="3">
         <v>3922100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3814200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3870000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3848900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3867900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3891200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3900500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3815100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3196400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3199300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3219200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3259100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3271000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3314900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3323700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3327100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3397100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3055700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3069900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3074400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2958200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2925300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2930100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2940800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2948900</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3843,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3923,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E52" s="3">
         <v>211200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>189300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>168000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>141600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>140800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>148500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>151400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>247500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>226000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>217100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>200000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>144200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>141700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>133500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>136400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>138000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>106100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>98300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>94800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>95300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>102200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>99400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>82200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>80000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>81100</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4083,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6120900</v>
+      </c>
+      <c r="E54" s="3">
         <v>8415600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8334100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8243000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7936200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7868800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7696000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7482100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7358700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6519000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6332300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6300100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6291300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6285600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6343400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6289200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5964600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6169700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5697100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5552000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5511400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5349300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5253400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5134100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5128500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5212600</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4193,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4223,105 +4317,109 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>421600</v>
+      </c>
+      <c r="E57" s="3">
         <v>672600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>756300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>728100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>764900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>735700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>697500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>599200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>620500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>544100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>463900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>426400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>460000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>436500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>476600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>442000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>459000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>437700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>428700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>417100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>428800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>392500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>397000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>378900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>393800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>361900</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>599200</v>
+      </c>
+      <c r="E58" s="3">
         <v>600300</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>400000</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -4329,8 +4427,8 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -4339,34 +4437,34 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>399900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>399700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>399500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>749300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>350000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>525000</v>
       </c>
       <c r="T58" s="3">
         <v>525000</v>
       </c>
       <c r="U58" s="3">
-        <v>350000</v>
+        <v>525000</v>
       </c>
       <c r="V58" s="3">
         <v>350000</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
+      <c r="W58" s="3">
+        <v>350000</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>8</v>
@@ -4377,334 +4475,349 @@
       <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA58" s="3">
-        <v>0</v>
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>523900</v>
+      </c>
+      <c r="E59" s="3">
         <v>775000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>685200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>626700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>806200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>793100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>667200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>597800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>724600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>590900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>488900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>419800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>549600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>540600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>469300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>446800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>508100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>488900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>451800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>373700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>478000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>460000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>394100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>328900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>449000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>414800</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1544700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2047900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1441500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1354800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1971100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1528800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1364700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1197000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1345100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1135000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>952800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1246100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1409300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1376600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1695200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1238800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1492100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1451600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1230500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1140800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>906800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>852500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>791100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>707800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>842800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>776700</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2074300</v>
+      </c>
+      <c r="E61" s="3">
         <v>2786900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3357900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3367900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2309800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2629100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2608300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2682800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2572200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2086500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2245900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2035200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1784600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1949000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1666000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2169700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1809000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1988400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1793300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1538000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1507600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1462200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1391900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1491500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1431100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1585800</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>415000</v>
+      </c>
+      <c r="E62" s="3">
         <v>550700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>582300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>605500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>590500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>656300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>679500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>677900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>665900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>668900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>670500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>660900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>669600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>623300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>637500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>633600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>483500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>496100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>498600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>514900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>495900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>488700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>501700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>504100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>491600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>489900</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4783,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4863,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4943,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4034000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5385500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5381700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5328200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4871400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4814200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4652500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4557700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4583200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3890400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3870500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3943100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3864700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3950200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3999900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4043700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3786400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3937800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3524000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3195200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2911900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2805000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2686200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2704900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2767000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2853800</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5053,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5133,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5213,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5293,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5373,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2323800</v>
+      </c>
+      <c r="E72" s="3">
         <v>3277000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3145000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2989400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2807900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2670000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2539300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2358000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2180200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2052700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1954700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1872100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1763000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1692500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1648100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1541400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1448100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1393400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1350500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1249900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1174200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1076500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1002000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>892000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>814600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>738400</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5533,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5613,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5693,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2086900</v>
+      </c>
+      <c r="E76" s="3">
         <v>3030100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2952400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2914800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3064800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3054600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3043500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2924400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2775500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2628600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2461800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2357000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2426600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2335400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2343500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2245500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2178200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2231900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2173100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2356800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2599500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2544300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2567200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2429200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2361500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2358800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5853,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>686700</v>
+      </c>
+      <c r="E81" s="3">
         <v>204200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>192000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>180900</v>
       </c>
-      <c r="G81" s="3">
-        <v>175300</v>
-      </c>
       <c r="H81" s="3">
+        <v>772400</v>
+      </c>
+      <c r="I81" s="3">
         <v>202100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>217200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>177800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>163600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>164600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>115800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>109100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>104100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>105600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>137500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>84700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>85200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>99800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>129600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>75000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>128000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>129500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>137700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>77400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>103600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>123400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6048,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>191600</v>
+      </c>
+      <c r="E83" s="3">
         <v>48600</v>
-      </c>
-      <c r="E83" s="3">
-        <v>46900</v>
       </c>
       <c r="F83" s="3">
         <v>46900</v>
       </c>
       <c r="G83" s="3">
+        <v>46900</v>
+      </c>
+      <c r="H83" s="3">
+        <v>189100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>46200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>47500</v>
+      </c>
+      <c r="K83" s="3">
         <v>47700</v>
       </c>
-      <c r="H83" s="3">
-        <v>46200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>47500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>47700</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>46600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>39300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>40100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>37500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>40000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>36700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>38200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>37800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>40700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>37500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>37900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>33500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>34000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>32300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>32200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>31800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>33000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6208,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6288,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6368,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6448,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6528,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>566300</v>
+      </c>
+      <c r="E89" s="3">
         <v>246900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>225000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-183100</v>
       </c>
-      <c r="G89" s="3">
-        <v>257900</v>
-      </c>
       <c r="H89" s="3">
+        <v>688700</v>
+      </c>
+      <c r="I89" s="3">
         <v>168100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>331900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-69200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>318900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>246300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>274300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>283400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>241800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>201700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-89700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>260300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>206400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>189200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-51900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>247700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>181400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>189100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-17900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>269900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>215600</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6638,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-246100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-59500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-54800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-60800</v>
       </c>
-      <c r="G91" s="3">
-        <v>-101200</v>
-      </c>
       <c r="H91" s="3">
+        <v>-214200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-47200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-40400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-84300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-26900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-49400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-27700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-27200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-43600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-39300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-29600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-37600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-69500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-36000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-30000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-29500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-43200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-31400</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6798,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6878,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-455500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-211800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-54800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-114400</v>
       </c>
-      <c r="G94" s="3">
-        <v>-101000</v>
-      </c>
       <c r="H94" s="3">
+        <v>-207100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-47200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-40400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-799400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-23200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-77000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-49500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-27300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-25500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-25300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-65900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-496100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-29600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-42700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-174500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-55100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-28500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-29600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-50800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-178700</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6988,88 +7185,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-145600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-36200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-36400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-37200</v>
       </c>
-      <c r="G96" s="3">
-        <v>-35100</v>
-      </c>
       <c r="H96" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-35900</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-36000</v>
       </c>
       <c r="J96" s="3">
         <v>-36000</v>
       </c>
       <c r="K96" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-33400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-33300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-33100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-33500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-30700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-30600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-30700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-31000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-28100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-28500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-29000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-29600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-27600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-27400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-27700</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-27600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-24500</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-24700</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7148,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7228,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7308,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>72500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-36000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-176100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>203200</v>
       </c>
-      <c r="G100" s="3">
-        <v>-143500</v>
-      </c>
       <c r="H100" s="3">
+        <v>-428600</v>
+      </c>
+      <c r="I100" s="3">
         <v>-115700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-192200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>22800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>420400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-166600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-219500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>77300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-187800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-148900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-182400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>129400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-314200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>342600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-51400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>16200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-26600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-108300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-121200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>6000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-240900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-35700</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-14700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-12000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
-        <v>-2900</v>
-      </c>
       <c r="H101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I101" s="3">
         <v>-4900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>14400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>9900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-15000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-7400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-7100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>6400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-5300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>172200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-15600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-93600</v>
       </c>
-      <c r="G102" s="3">
-        <v>10500</v>
-      </c>
       <c r="H102" s="3">
+        <v>51100</v>
+      </c>
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>103500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-63200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-45700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>65700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>38600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-28500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>51600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>59500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>18200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-127200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>52400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>101100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-78600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>45900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>24400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>41900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-40700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-27100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBIN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1040000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4723000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2053700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2111000</v>
       </c>
-      <c r="G8" s="3">
-        <v>1917300</v>
-      </c>
       <c r="H8" s="3">
+        <v>1140200</v>
+      </c>
+      <c r="I8" s="3">
         <v>4801100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1986300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1936100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1771000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1659700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1652100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1375800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1402700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1470500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1459000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1507200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1327900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1420700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1380800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1429000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1254600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1382500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1348600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1365400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1186800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1301600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1279000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>631700</v>
+      </c>
+      <c r="E9" s="3">
         <v>2790100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1310200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1347900</v>
       </c>
-      <c r="G9" s="3">
-        <v>1237800</v>
-      </c>
       <c r="H9" s="3">
+        <v>671800</v>
+      </c>
+      <c r="I9" s="3">
         <v>2840600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1280000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1230300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1126900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1052000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1071500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>892900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>909500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>934600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>934800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>969600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>869100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>920300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>880800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>898900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>814600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>885700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>843200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>850500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>768500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>826400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>798200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>408300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1932900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>743500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>763100</v>
       </c>
-      <c r="G10" s="3">
-        <v>679500</v>
-      </c>
       <c r="H10" s="3">
+        <v>468400</v>
+      </c>
+      <c r="I10" s="3">
         <v>1960500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>706300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>705800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>644100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>607700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>580600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>482900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>493200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>535900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>524200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>537600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>458800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>500400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>500000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>530100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>440000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>496800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>505400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>514900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>418300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>475200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>480800</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,174 +1242,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E14" s="3">
         <v>32400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>30200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>28300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>23400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>14000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>23000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>35000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>43400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>38400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>16300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>18100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>6100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>2600</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E15" s="3">
         <v>48300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>16800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>16100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
+        <v>11600</v>
+      </c>
+      <c r="I15" s="3">
+        <v>46400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K15" s="3">
         <v>16000</v>
       </c>
-      <c r="H15" s="3">
-        <v>46400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>15900</v>
-      </c>
-      <c r="J15" s="3">
-        <v>16000</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>16600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>10500</v>
-      </c>
-      <c r="N15" s="3">
-        <v>10300</v>
       </c>
       <c r="O15" s="3">
         <v>10300</v>
       </c>
       <c r="P15" s="3">
+        <v>10300</v>
+      </c>
+      <c r="Q15" s="3">
         <v>11400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>9900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>10100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>10000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>10800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>8900</v>
-      </c>
-      <c r="V15" s="3">
-        <v>8200</v>
       </c>
       <c r="W15" s="3">
         <v>8200</v>
       </c>
       <c r="X15" s="3">
+        <v>8200</v>
+      </c>
+      <c r="Y15" s="3">
         <v>8100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>7500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>8000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>8100</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>7700</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>908200</v>
+      </c>
+      <c r="E17" s="3">
         <v>3948700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1772500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1826900</v>
       </c>
-      <c r="G17" s="3">
-        <v>1663900</v>
-      </c>
       <c r="H17" s="3">
+        <v>960400</v>
+      </c>
+      <c r="I17" s="3">
         <v>3990000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1699700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1641200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1522600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1426500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1411900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1202800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1247700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1278000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1291000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1304800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1192300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1280600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1233700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1240400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1135200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1219700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1149100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1156200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1071900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1135200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1095900</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>131800</v>
+      </c>
+      <c r="E18" s="3">
         <v>774300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>281200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>284100</v>
       </c>
-      <c r="G18" s="3">
-        <v>253400</v>
-      </c>
       <c r="H18" s="3">
+        <v>179800</v>
+      </c>
+      <c r="I18" s="3">
         <v>811100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>286600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>294900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>248400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>233200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>240200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>173000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>155000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>192500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>168000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>202400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>135600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>140100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>147100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>188600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>119400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>162800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>199500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>209200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>114900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>166400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>183100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,423 +1649,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E20" s="3">
         <v>12000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>1300</v>
-      </c>
       <c r="H20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1300</v>
       </c>
       <c r="J20" s="3">
         <v>1300</v>
       </c>
       <c r="K20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L20" s="3">
         <v>-3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-31200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>9600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-7500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E21" s="3">
         <v>977900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>331900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>331200</v>
       </c>
-      <c r="G21" s="3">
-        <v>301600</v>
-      </c>
       <c r="H21" s="3">
+        <v>228800</v>
+      </c>
+      <c r="I21" s="3">
         <v>999800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>334100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>343700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>292800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>279700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>281600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>218300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>198600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>201300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>205000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>241300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>174600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>181300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>194200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>229900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>155700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>189300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>234000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>243700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>147500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>197800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>212400</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E22" s="3">
         <v>119200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>33100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>30500</v>
       </c>
-      <c r="G22" s="3">
-        <v>21800</v>
-      </c>
       <c r="H22" s="3">
+        <v>21700</v>
+      </c>
+      <c r="I22" s="3">
         <v>84300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>20600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>21200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>21400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>20100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>22200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>22100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>22400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>23600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>24500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>23700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>23400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>19000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>17400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>14700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>12900</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>12300</v>
       </c>
       <c r="Z22" s="3">
         <v>12300</v>
       </c>
       <c r="AA22" s="3">
+        <v>12300</v>
+      </c>
+      <c r="AB22" s="3">
         <v>11900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>11600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E23" s="3">
         <v>667100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>250200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>253800</v>
       </c>
-      <c r="G23" s="3">
-        <v>232900</v>
-      </c>
       <c r="H23" s="3">
+        <v>160200</v>
+      </c>
+      <c r="I23" s="3">
         <v>726400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>267300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>275000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>223700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>213600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>222200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>156000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>139000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>138900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>144700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>178600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>113100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>117200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>137700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>174600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>107500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>142400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>189400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>199200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>103800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>153200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>170700</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E24" s="3">
         <v>127200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>46000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>61800</v>
       </c>
-      <c r="G24" s="3">
-        <v>52000</v>
-      </c>
       <c r="H24" s="3">
+        <v>34000</v>
+      </c>
+      <c r="I24" s="3">
         <v>166700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>65200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>57800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>45900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>47100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>54000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>37800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>29900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>34900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>39000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>41500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>28600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>28700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>40900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>44900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>27000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>40100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>59800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>58900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>26400</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>48800</v>
       </c>
       <c r="AC24" s="3">
         <v>48800</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>48800</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E26" s="3">
         <v>539900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>204200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>192000</v>
       </c>
-      <c r="G26" s="3">
-        <v>180900</v>
-      </c>
       <c r="H26" s="3">
+        <v>126200</v>
+      </c>
+      <c r="I26" s="3">
         <v>559700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>202100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>217200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>177800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>166500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>168200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>118200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>109100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>104000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>105700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>137100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>84500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>88500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>96800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>129700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>80500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>102300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>129600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>140300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>77400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>104400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E27" s="3">
         <v>539900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>204200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>192000</v>
       </c>
-      <c r="G27" s="3">
-        <v>180900</v>
-      </c>
       <c r="H27" s="3">
+        <v>126200</v>
+      </c>
+      <c r="I27" s="3">
         <v>559700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>202100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>217200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>177800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>163600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>164600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>115800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>109100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>104100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>105600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>137500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>84700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>88400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>96700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>129600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>80600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>102300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>129500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>140300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>77400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>104300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,16 +2421,19 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E29" s="3">
         <v>146800</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -2381,16 +2442,16 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
+        <v>54700</v>
+      </c>
+      <c r="I29" s="3">
         <v>212700</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2398,14 +2459,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2417,37 +2478,40 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-3200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>3100</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-5600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>25700</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA29" s="3" t="s">
+      <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-700</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-12000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1300</v>
-      </c>
       <c r="H32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1300</v>
       </c>
       <c r="J32" s="3">
         <v>-1300</v>
       </c>
       <c r="K32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="L32" s="3">
         <v>3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>31200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-9600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>7500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>84600</v>
+      </c>
+      <c r="E33" s="3">
         <v>686700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>204200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>192000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>180900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>772400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>202100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>217200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>177800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>163600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>164600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>115800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>109100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>104100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>105600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>137500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>84700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>85200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>99800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>129600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>75000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>128000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>129500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>137700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>77400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>103600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>123400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>84600</v>
+      </c>
+      <c r="E35" s="3">
         <v>686700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>204200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>192000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>180900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>772400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>202100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>217200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>177800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>163600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>164600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>115800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>109100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>104100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>105600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>137500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>84700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>85200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>99800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>129600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>75000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>128000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>129500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>137700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>77400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>103600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>123400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>539100</v>
+      </c>
+      <c r="E41" s="3">
         <v>642500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>345300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>360600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>378200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>471500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>460700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>460000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>356100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>419100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>464500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>398400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>359700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>387900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>336200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>276300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>281200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>262900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>389900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>345500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>244400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>323000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>277100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>252700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>210800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>251500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>278600</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,340 +3350,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>559000</v>
+      </c>
+      <c r="E43" s="3">
         <v>521800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>936100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>998500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1011600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>885700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>921800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>844600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>828500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>734900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>765200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>657700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>678200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>624800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>640100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>706200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>650100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>571700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>635400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>657500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>631500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>555300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>594700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>595700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>564900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>550700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>568800</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>931100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1021300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1502300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1446700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1334700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1193800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1128300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1046800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>958400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>867200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>738300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>732300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>703100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>718600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>758800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>741900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>737900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>678900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>684300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>627000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>619200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>580800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>600100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>581400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>558800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>531100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>562500</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>272000</v>
+      </c>
+      <c r="E45" s="3">
         <v>274800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>223900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>258000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>232200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>193500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>215200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>197500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>202900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>187300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>170000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>168900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>173000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>166900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>171600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>192500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>178800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>172600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>180600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>175500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>149400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>142600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>126400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>123300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>121600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>111900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2301200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2460400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3007600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3063800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2956700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2744500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2726000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2548900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2345900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2208500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2138000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1957300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1914000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1898200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1906700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1916900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1848000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1686100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1890200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1805500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1644500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1601700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1598300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1553100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1456100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1445200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1539700</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,174 +3780,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>917700</v>
+      </c>
+      <c r="E48" s="3">
         <v>902600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1274700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1266800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1248300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1201200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1134100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1107400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1084300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1087600</v>
-      </c>
-      <c r="M48" s="3">
-        <v>958600</v>
       </c>
       <c r="N48" s="3">
         <v>958600</v>
       </c>
       <c r="O48" s="3">
+        <v>958600</v>
+      </c>
+      <c r="P48" s="3">
         <v>966900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>989800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>966200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>978100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>981100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>813400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>776300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>737600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>742800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>740000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>690600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>675600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>665700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>662500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>642900</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2634300</v>
+      </c>
+      <c r="E49" s="3">
         <v>2641500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3922100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3814200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3870000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3848900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3867900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3891200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3900500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3815100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3196400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3199300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3219200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3259100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3271000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3314900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3323700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3327100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3397100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3055700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3069900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3074400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2958200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2925300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2930100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2940800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2948900</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>119500</v>
+      </c>
+      <c r="E52" s="3">
         <v>116400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>211200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>189300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>168000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>141600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>140800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>148500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>151400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>247500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>226000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>217100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>200000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>144200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>141700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>133500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>136400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>138000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>106100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>98300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>94800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>95300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>102200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>99400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>82200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>80000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>81100</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5972700</v>
+      </c>
+      <c r="E54" s="3">
         <v>6120900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8415600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8334100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8243000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7936200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7868800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7696000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7482100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7358700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6519000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6332300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6300100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6291300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6285600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6343400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6289200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5964600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6169700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5697100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5552000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5511400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5349300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5253400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5134100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5128500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>5212600</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,111 +4448,115 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>423700</v>
+      </c>
+      <c r="E57" s="3">
         <v>421600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>672600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>756300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>728100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>764900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>735700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>697500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>599200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>620500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>544100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>463900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>426400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>460000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>436500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>476600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>442000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>459000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>437700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>428700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>417100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>428800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>392500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>397000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>378900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>393800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>361900</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>599500</v>
+      </c>
+      <c r="E58" s="3">
         <v>599200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600300</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>400000</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -4430,8 +4564,8 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -4440,34 +4574,34 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>399900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>399700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>399500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>749300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>350000</v>
-      </c>
-      <c r="T58" s="3">
-        <v>525000</v>
       </c>
       <c r="U58" s="3">
         <v>525000</v>
       </c>
       <c r="V58" s="3">
-        <v>350000</v>
+        <v>525000</v>
       </c>
       <c r="W58" s="3">
         <v>350000</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
+      <c r="X58" s="3">
+        <v>350000</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>8</v>
@@ -4478,346 +4612,361 @@
       <c r="AA58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB58" s="3">
-        <v>0</v>
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>390000</v>
+      </c>
+      <c r="E59" s="3">
         <v>523900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>775000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>685200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>626700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>806200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>793100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>667200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>597800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>724600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>590900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>488900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>419800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>549600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>540600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>469300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>446800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>508100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>488900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>451800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>373700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>478000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>460000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>394100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>328900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>449000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>414800</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1413200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1544700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2047900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1441500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1354800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1971100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1528800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1364700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1197000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1345100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1135000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>952800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1246100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1409300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1376600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1695200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1238800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1492100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1451600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1230500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1140800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>906800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>852500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>791100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>707800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>842800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>776700</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2074900</v>
+      </c>
+      <c r="E61" s="3">
         <v>2074300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2786900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3357900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3367900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2309800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2629100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2608300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2682800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2572200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2086500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2245900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2035200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1784600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1949000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1666000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2169700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1809000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1988400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1793300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1538000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1507600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1462200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1391900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1491500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1431100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1585800</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>402100</v>
+      </c>
+      <c r="E62" s="3">
         <v>415000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>550700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>582300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>605500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>590500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>656300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>679500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>677900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>665900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>668900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>670500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>660900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>669600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>623300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>637500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>633600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>483500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>496100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>498600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>514900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>495900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>488700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>501700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>504100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>491600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>489900</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3890200</v>
+      </c>
+      <c r="E66" s="3">
         <v>4034000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5385500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5381700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5328200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4871400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4814200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4652500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4557700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4583200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3890400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3870500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3943100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3864700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3950200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3999900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4043700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3786400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3937800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3524000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3195200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2911900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2805000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2686200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2704900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2767000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2853800</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2402400</v>
+      </c>
+      <c r="E72" s="3">
         <v>2323800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3277000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3145000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2989400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2807900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2670000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2539300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2358000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2180200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2052700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1954700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1872100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1763000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1692500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1648100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1541400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1448100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1393400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1350500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1249900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1174200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1076500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1002000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>892000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>814600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>738400</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2082500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2086900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3030100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2952400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2914800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3064800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3054600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3043500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2924400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2775500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2628600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2461800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2357000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2426600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2335400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2343500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2245500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2178200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2231900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2173100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2356800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2599500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2544300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2567200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2429200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2361500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2358800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>84600</v>
+      </c>
+      <c r="E81" s="3">
         <v>686700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>204200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>192000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>180900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>772400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>202100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>217200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>177800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>163600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>164600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>115800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>109100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>104100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>105600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>137500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>84700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>85200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>99800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>129600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>75000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>128000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>129500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>137700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>77400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>103600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>123400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E83" s="3">
         <v>191600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>48600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>46900</v>
       </c>
       <c r="G83" s="3">
         <v>46900</v>
       </c>
       <c r="H83" s="3">
+        <v>46900</v>
+      </c>
+      <c r="I83" s="3">
         <v>189100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>46200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>47500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>47700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>46600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>39300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>40100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>37500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>40000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>36700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>38200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>37800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>40700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>37500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>37900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>33500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>34000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>32300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>32200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>31800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>33000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E89" s="3">
         <v>566300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>246900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>225000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-183100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>688700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>168100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>331900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-69200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>318900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>246300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>274300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-13800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>283400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>241800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>201700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-89700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>260300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>206400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>189200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-51900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>247700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>181400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>189100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-17900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>269900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>215600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-246100</v>
+        <v>-42600</v>
       </c>
       <c r="E91" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-59500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-54800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-60800</v>
       </c>
-      <c r="H91" s="3">
-        <v>-214200</v>
-      </c>
       <c r="I91" s="3">
+        <v>-101200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-47200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-40400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-84300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-26900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-49400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-27500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-27700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-27200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-43600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-39300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-29600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-37600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-69500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-36000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-30000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-29500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-43200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-31400</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-455500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-211800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-54800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-114400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-207100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-47200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-40400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-799400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-23900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-23200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-77000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-49500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-27300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-25500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-25300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-65900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-496100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-29600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-42700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-174500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-55100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-28500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-29600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-50800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-178700</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,91 +7419,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-145600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-36200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-36400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-37200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-143000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-35900</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-36000</v>
       </c>
       <c r="K96" s="3">
         <v>-36000</v>
       </c>
       <c r="L96" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-33400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-33300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-33100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-33500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-30700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-30600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-30700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-31000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-28100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-28500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-29000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-29600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-27600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-27400</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-27700</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-27600</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-24500</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-24700</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-139300</v>
+      </c>
+      <c r="E100" s="3">
         <v>72500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-36000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-176100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>203200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-428600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-115700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-192200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>22800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>420400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-166600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-219500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>77300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-187800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-148900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-182400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>129400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-314200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>342600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-51400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>16200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-26600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-108300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-121200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>6000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-240900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-35700</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-11100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-14700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-12000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>14400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>9900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-15000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-7400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-7100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>6400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-5300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-103600</v>
+      </c>
+      <c r="E102" s="3">
         <v>172200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-93600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>51100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>103500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-63200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-45700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>65700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>38600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-28500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>51600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>59500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>18200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-127200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>52400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>101100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-78600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>45900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>24400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>41900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-40700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-27100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBIN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,396 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1163700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1040000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4723000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2053700</v>
       </c>
-      <c r="G8" s="3">
-        <v>2111000</v>
-      </c>
       <c r="H8" s="3">
+        <v>1255400</v>
+      </c>
+      <c r="I8" s="3">
         <v>1140200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4801100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1986300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1936100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1771000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1659700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1652100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1375800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1402700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1470500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1459000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1507200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1327900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1420700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1380800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1429000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1254600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1382500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1348600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1365400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1186800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1301600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1279000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>695600</v>
+      </c>
+      <c r="E9" s="3">
         <v>631700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2790100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1310200</v>
       </c>
-      <c r="G9" s="3">
-        <v>1347900</v>
-      </c>
       <c r="H9" s="3">
+        <v>742000</v>
+      </c>
+      <c r="I9" s="3">
         <v>671800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2840600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1280000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1230300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1126900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1052000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1071500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>892900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>909500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>934600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>934800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>969600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>869100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>920300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>880800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>898900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>814600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>885700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>843200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>850500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>768500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>826400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>798200</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>468100</v>
+      </c>
+      <c r="E10" s="3">
         <v>408300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1932900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>743500</v>
       </c>
-      <c r="G10" s="3">
-        <v>763100</v>
-      </c>
       <c r="H10" s="3">
+        <v>513400</v>
+      </c>
+      <c r="I10" s="3">
         <v>468400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1960500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>706300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>705800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>644100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>607700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>580600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>482900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>493200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>535900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>524200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>537600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>458800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>500400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>500000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>530100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>440000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>496800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>505400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>514900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>418300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>475200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>480800</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1085,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1172,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,94 +1261,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E14" s="3">
         <v>3100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>32400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>30200</v>
       </c>
-      <c r="G14" s="3">
-        <v>28300</v>
-      </c>
       <c r="H14" s="3">
+        <v>27000</v>
+      </c>
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>9300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>23400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>14000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>23000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>35000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>43400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>38400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>16300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>18100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>900</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>6100</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>2600</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,85 +1362,88 @@
         <v>12600</v>
       </c>
       <c r="E15" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F15" s="3">
         <v>48300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>16800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>16100</v>
       </c>
       <c r="H15" s="3">
         <v>11600</v>
       </c>
       <c r="I15" s="3">
+        <v>11600</v>
+      </c>
+      <c r="J15" s="3">
         <v>46400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>15900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>16000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>16600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>10900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>10500</v>
-      </c>
-      <c r="O15" s="3">
-        <v>10300</v>
       </c>
       <c r="P15" s="3">
         <v>10300</v>
       </c>
       <c r="Q15" s="3">
+        <v>10300</v>
+      </c>
+      <c r="R15" s="3">
         <v>11400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>9900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>10100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>10000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>10800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>8900</v>
-      </c>
-      <c r="W15" s="3">
-        <v>8200</v>
       </c>
       <c r="X15" s="3">
         <v>8200</v>
       </c>
       <c r="Y15" s="3">
+        <v>8200</v>
+      </c>
+      <c r="Z15" s="3">
         <v>8100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>7500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>8000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>8100</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>7700</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1471,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1011100</v>
+      </c>
+      <c r="E17" s="3">
         <v>908200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3948700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1772500</v>
       </c>
-      <c r="G17" s="3">
-        <v>1826900</v>
-      </c>
       <c r="H17" s="3">
+        <v>1035900</v>
+      </c>
+      <c r="I17" s="3">
         <v>960400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3990000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1699700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1641200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1522600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1426500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1411900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1202800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1247700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1278000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1291000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1304800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1192300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1280600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1233700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1240400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1135200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1219700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1149100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1156200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1071900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1135200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1095900</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>152600</v>
+      </c>
+      <c r="E18" s="3">
         <v>131800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>774300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>281200</v>
       </c>
-      <c r="G18" s="3">
-        <v>284100</v>
-      </c>
       <c r="H18" s="3">
+        <v>219500</v>
+      </c>
+      <c r="I18" s="3">
         <v>179800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>811100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>286600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>294900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>248400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>233200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>240200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>173000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>155000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>192500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>168000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>202400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>135600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>140100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>147100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>188600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>119400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>162800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>199500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>209200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>114900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>166400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>183100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,438 +1682,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E20" s="3">
         <v>6300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>12000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1300</v>
       </c>
       <c r="K20" s="3">
         <v>1300</v>
       </c>
       <c r="L20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M20" s="3">
         <v>-3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-31200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>9600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-7500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-1600</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>192000</v>
+      </c>
+      <c r="E21" s="3">
         <v>170000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>977900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>331900</v>
       </c>
-      <c r="G21" s="3">
-        <v>331200</v>
-      </c>
       <c r="H21" s="3">
+        <v>266600</v>
+      </c>
+      <c r="I21" s="3">
         <v>228800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>999800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>334100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>343700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>292800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>279700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>281600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>218300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>198600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>201300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>205000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>241300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>174600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>181300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>194200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>229900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>155700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>189300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>234000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>243700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>147500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>197800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>212400</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E22" s="3">
         <v>26800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>119200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>33100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>30500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>21700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>84300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>20600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>21200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>21400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>19500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>20100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>22200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>22100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>22400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>23600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>24500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>23700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>23400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>19000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>17400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>14700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>12900</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>12300</v>
       </c>
       <c r="AA22" s="3">
         <v>12300</v>
       </c>
       <c r="AB22" s="3">
+        <v>12300</v>
+      </c>
+      <c r="AC22" s="3">
         <v>11900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>11600</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>130100</v>
+      </c>
+      <c r="E23" s="3">
         <v>111300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>667100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>250200</v>
       </c>
-      <c r="G23" s="3">
-        <v>253800</v>
-      </c>
       <c r="H23" s="3">
+        <v>189200</v>
+      </c>
+      <c r="I23" s="3">
         <v>160200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>726400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>267300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>275000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>223700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>213600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>222200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>156000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>139000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>138900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>144700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>178600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>113100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>117200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>137700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>174600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>107500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>142400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>189400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>199200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>103800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>153200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>170700</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E24" s="3">
         <v>25700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>127200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>46000</v>
       </c>
-      <c r="G24" s="3">
-        <v>61800</v>
-      </c>
       <c r="H24" s="3">
+        <v>44900</v>
+      </c>
+      <c r="I24" s="3">
         <v>34000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>166700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>65200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>57800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>45900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>47100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>54000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>37800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>29900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>34900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>39000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>41500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>28600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>28700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>40900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>44900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>27000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>40100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>59800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>58900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>26400</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>48800</v>
       </c>
       <c r="AD24" s="3">
         <v>48800</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>48800</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2214,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>102100</v>
+      </c>
+      <c r="E26" s="3">
         <v>85600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>539900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>204200</v>
       </c>
-      <c r="G26" s="3">
-        <v>192000</v>
-      </c>
       <c r="H26" s="3">
+        <v>144300</v>
+      </c>
+      <c r="I26" s="3">
         <v>126200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>559700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>202100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>217200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>177800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>166500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>168200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>118200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>109100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>104000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>105700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>137100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>84500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>88500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>96800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>129700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>80500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>102300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>129600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>140300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>77400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>104400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>102100</v>
+      </c>
+      <c r="E27" s="3">
         <v>85600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>539900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>204200</v>
       </c>
-      <c r="G27" s="3">
-        <v>192000</v>
-      </c>
       <c r="H27" s="3">
+        <v>144300</v>
+      </c>
+      <c r="I27" s="3">
         <v>126200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>559700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>202100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>217200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>177800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>163600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>164600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>115800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>109100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>104100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>105600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>137500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>84700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>88400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>96700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>129600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>80600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>102300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>129500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>140300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>77400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>104300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,37 +2481,40 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-1000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>146800</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="3">
+        <v>47700</v>
+      </c>
+      <c r="I29" s="3">
         <v>54700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>212700</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2462,14 +2522,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2481,37 +2541,40 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-3200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>3100</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>25700</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
       <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB29" s="3" t="s">
+      <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-700</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2659,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2748,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-12000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1300</v>
       </c>
       <c r="K32" s="3">
         <v>-1300</v>
       </c>
       <c r="L32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M32" s="3">
         <v>3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>31200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-9600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>7500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>1600</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>102100</v>
+      </c>
+      <c r="E33" s="3">
         <v>84600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>686700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>204200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>192000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>180900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>772400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>202100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>217200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>177800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>163600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>164600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>115800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>109100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>104100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>105600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>137500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>84700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>85200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>99800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>129600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>75000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>128000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>129500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>137700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>77400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>103600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>123400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3015,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>102100</v>
+      </c>
+      <c r="E35" s="3">
         <v>84600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>686700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>204200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>192000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>180900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>772400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>202100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>217200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>177800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>163600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>164600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>115800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>109100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>104100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>105600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>137500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>84700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>85200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>99800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>129600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>75000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>128000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>129500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>137700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>77400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>103600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>123400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3233,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3266,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>681700</v>
+      </c>
+      <c r="E41" s="3">
         <v>539100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>642500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>345300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>360600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>378200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>471500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>460700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>460000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>356100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>419100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>464500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>398400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>359700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>387900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>336200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>276300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>281200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>262900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>389900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>345500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>244400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>323000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>277100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>252700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>210800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>251500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>278600</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,352 +3442,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>621200</v>
+      </c>
+      <c r="E43" s="3">
         <v>559000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>521800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>936100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>998500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1011600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>885700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>921800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>844600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>828500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>734900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>765200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>657700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>678200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>624800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>640100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>706200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>650100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>571700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>635400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>657500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>631500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>555300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>594700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>595700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>564900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>550700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>568800</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>954500</v>
+      </c>
+      <c r="E44" s="3">
         <v>931100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1021300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1502300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1446700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1334700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1193800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1128300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1046800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>958400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>867200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>738300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>732300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>703100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>718600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>758800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>741900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>737900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>678900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>684300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>627000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>619200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>580800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>600100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>581400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>558800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>531100</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>562500</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>186200</v>
+      </c>
+      <c r="E45" s="3">
         <v>272000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>274800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>223900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>258000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>232200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>193500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>215200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>197500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>202900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>187300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>170000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>168900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>173000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>166900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>171600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>192500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>178800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>172600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>180600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>175500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>149400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>142600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>126400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>123300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>121600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>111900</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2443600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2301200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2460400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3007600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3063800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2956700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2744500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2726000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2548900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2345900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2208500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2138000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1957300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1914000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1898200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1906700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1916900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1848000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1686100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1890200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1805500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1644500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1601700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1598300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1553100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1456100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1445200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1539700</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,180 +3887,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>980700</v>
+      </c>
+      <c r="E48" s="3">
         <v>917700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>902600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1274700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1266800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1248300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1201200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1134100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1107400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1084300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1087600</v>
-      </c>
-      <c r="N48" s="3">
-        <v>958600</v>
       </c>
       <c r="O48" s="3">
         <v>958600</v>
       </c>
       <c r="P48" s="3">
+        <v>958600</v>
+      </c>
+      <c r="Q48" s="3">
         <v>966900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>989800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>966200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>978100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>981100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>813400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>776300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>737600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>742800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>740000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>690600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>675600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>665700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>662500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>642900</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3332200</v>
+      </c>
+      <c r="E49" s="3">
         <v>2634300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2641500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3922100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3814200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3870000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3848900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3867900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3891200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3900500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3815100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3196400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3199300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3219200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3259100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3271000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3314900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3323700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3327100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3397100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3055700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3069900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>3074400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2958200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2925300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2930100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2940800</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2948900</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4154,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4243,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>116700</v>
+      </c>
+      <c r="E52" s="3">
         <v>119500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>116400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>211200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>189300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>168000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>141600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>140800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>148500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>151400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>247500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>226000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>217100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>200000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>144200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>141700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>133500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>136400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>138000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>106100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>98300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>94800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>95300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>102200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>99400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>82200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>80000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>81100</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4421,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6873200</v>
+      </c>
+      <c r="E54" s="3">
         <v>5972700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6120900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8415600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8334100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8243000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7936200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7868800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7696000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7482100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7358700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6519000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6332300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6300100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6291300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6285600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6343400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6289200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5964600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6169700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5697100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5552000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5511400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5349300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5253400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5134100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>5128500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>5212600</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4545,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,117 +4578,121 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>489500</v>
+      </c>
+      <c r="E57" s="3">
         <v>423700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>421600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>672600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>756300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>728100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>764900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>735700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>697500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>599200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>620500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>544100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>463900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>426400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>460000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>436500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>476600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>442000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>459000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>437700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>428700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>417100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>428800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>392500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>397000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>378900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>393800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>361900</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>599800</v>
+      </c>
+      <c r="E58" s="3">
         <v>599500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>599200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>600300</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>400000</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -4567,8 +4700,8 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -4577,34 +4710,34 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>399900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>399700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>399500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>749300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>350000</v>
-      </c>
-      <c r="U58" s="3">
-        <v>525000</v>
       </c>
       <c r="V58" s="3">
         <v>525000</v>
       </c>
       <c r="W58" s="3">
-        <v>350000</v>
+        <v>525000</v>
       </c>
       <c r="X58" s="3">
         <v>350000</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>8</v>
+      <c r="Y58" s="3">
+        <v>350000</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>8</v>
@@ -4615,358 +4748,373 @@
       <c r="AB58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC58" s="3">
-        <v>0</v>
+      <c r="AC58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>551400</v>
+      </c>
+      <c r="E59" s="3">
         <v>390000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>523900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>775000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>685200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>626700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>806200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>793100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>667200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>597800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>724600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>590900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>488900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>419800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>549600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>540600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>469300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>446800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>508100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>488900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>451800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>373700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>478000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>460000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>394100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>328900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>449000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>414800</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1640700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1413200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1544700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2047900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1441500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1354800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1971100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1528800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1364700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1197000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1345100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1135000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>952800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1246100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1409300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1376600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1695200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1238800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1492100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1451600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1230500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1140800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>906800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>852500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>791100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>707800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>842800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>776700</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2668500</v>
+      </c>
+      <c r="E61" s="3">
         <v>2074900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2074300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2786900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3357900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3367900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2309800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2629100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2608300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2682800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2572200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2086500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2245900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2035200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1784600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1949000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1666000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2169700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1809000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1988400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1793300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1538000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1507600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1462200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1391900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1491500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1431100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1585800</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>386900</v>
+      </c>
+      <c r="E62" s="3">
         <v>402100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>415000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>550700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>582300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>605500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>590500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>656300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>679500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>677900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>665900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>668900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>670500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>660900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>669600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>623300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>637500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>633600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>483500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>496100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>498600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>514900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>495900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>488700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>501700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>504100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>491600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>489900</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5199,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5288,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5377,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4696100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3890200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4034000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5385500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5381700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5328200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4871400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4814200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4652500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4557700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4583200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3890400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3870500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3943100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3864700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3950200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3999900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4043700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3786400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3937800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3524000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3195200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2911900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2805000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2686200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2704900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2767000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>2853800</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5501,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5588,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5677,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5766,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5855,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2475400</v>
+      </c>
+      <c r="E72" s="3">
         <v>2402400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2323800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3277000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3145000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2989400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2807900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2670000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2539300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2358000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2180200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2052700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1954700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1872100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1763000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1692500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1648100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1541400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1448100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1393400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1350500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1249900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1174200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1076500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1002000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>892000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>814600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>738400</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6033,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6122,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6211,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2177100</v>
+      </c>
+      <c r="E76" s="3">
         <v>2082500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2086900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3030100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2952400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2914800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3064800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3054600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3043500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2924400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2775500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2628600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2461800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2357000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2426600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2335400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2343500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2245500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2178200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2231900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2173100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2356800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2599500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2544300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2567200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2429200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2361500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2358800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6389,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>102100</v>
+      </c>
+      <c r="E81" s="3">
         <v>84600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>686700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>204200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>192000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>180900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>772400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>202100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>217200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>177800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>163600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>164600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>115800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>109100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>104100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>105600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>137500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>84700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>85200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>99800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>129600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>75000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>128000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>129500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>137700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>77400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>103600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>123400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6607,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E83" s="3">
         <v>31900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>191600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>48600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>46900</v>
       </c>
       <c r="H83" s="3">
         <v>46900</v>
       </c>
       <c r="I83" s="3">
+        <v>46900</v>
+      </c>
+      <c r="J83" s="3">
         <v>189100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>46200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>47500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>47700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>46600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>39300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>40100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>37500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>40000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>36700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>38200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>37800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>40700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>37500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>37900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>33500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>34000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>32300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>32200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>31800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>33000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6783,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6872,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6961,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7050,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7139,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>427500</v>
+      </c>
+      <c r="E89" s="3">
         <v>76100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>566300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>246900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>225000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-183100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>688700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>168100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>331900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-69200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>318900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>246300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>274300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>283400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>241800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>201700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-89700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>260300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>206400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>189200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-51900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>247700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>181400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>189100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-17900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>269900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>215600</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7263,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-69600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-42600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-71000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-59500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-54800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-60800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-101200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-47200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-40400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-84300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-26900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-49400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-27500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-27700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-27200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-43600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-39300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-29600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-37600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-69500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-36000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-30000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-29500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-43200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-31400</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7439,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7528,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-848700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-42600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-455500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-211800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-54800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-114400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-207100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-47200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-40400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-799400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-23900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-23200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-77000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-49500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-27300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-25500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-25300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-65900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-496100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-29600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-42700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-174500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-55100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-28500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-29600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-50800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-178700</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,94 +7652,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-29500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-145600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-36200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-36400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-37200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-143000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-35900</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-36000</v>
       </c>
       <c r="L96" s="3">
         <v>-36000</v>
       </c>
       <c r="M96" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-33400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-33300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-33100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-33500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-30700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-30600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-30700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-31000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-28100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-28500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-29000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-29600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-27600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-27400</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-27700</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-27600</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-24500</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-24700</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7828,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7917,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8006,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>567100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-139300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>72500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-36000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-176100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>203200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-428600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-115700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-192200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>22800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>420400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-166600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-219500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>77300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-187800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-148900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-182400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>129400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-314200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>342600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-51400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>16200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-26600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-108300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-121200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>6000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-240900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-35700</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E101" s="3">
         <v>2200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-11100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-14700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-12000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>14400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>9900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>7000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-6100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-7400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-7100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>6400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>2500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>800</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-5300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>141600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-103600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>172200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-17900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-93600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>51100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>103500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-63200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-45700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>65700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>38600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-28500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>51600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>59500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>18200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-127200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>52400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>101100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-78600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>45900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>24400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>41900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-40700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-27100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FBIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FBIN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,396 +665,409 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1261200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1163700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1040000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4723000</v>
       </c>
-      <c r="G8" s="3">
-        <v>2053700</v>
-      </c>
       <c r="H8" s="3">
+        <v>1195500</v>
+      </c>
+      <c r="I8" s="3">
         <v>1255400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1140200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4801100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1986300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1936100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1771000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1659700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1652100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1375800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1402700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1470500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1459000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1507200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1327900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1420700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1380800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1429000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1254600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1382500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1348600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1365400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1186800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1301600</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1279000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>721100</v>
+      </c>
+      <c r="E9" s="3">
         <v>695600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>631700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2790100</v>
       </c>
-      <c r="G9" s="3">
-        <v>1310200</v>
-      </c>
       <c r="H9" s="3">
+        <v>716600</v>
+      </c>
+      <c r="I9" s="3">
         <v>742000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>671800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2840600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1280000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1230300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1126900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1052000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1071500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>892900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>909500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>934600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>934800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>969600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>869100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>920300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>880800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>898900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>814600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>885700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>843200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>850500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>768500</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>826400</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>798200</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>540100</v>
+      </c>
+      <c r="E10" s="3">
         <v>468100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>408300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1932900</v>
       </c>
-      <c r="G10" s="3">
-        <v>743500</v>
-      </c>
       <c r="H10" s="3">
+        <v>478900</v>
+      </c>
+      <c r="I10" s="3">
         <v>513400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>468400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1960500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>706300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>705800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>644100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>607700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>580600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>482900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>493200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>535900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>524200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>537600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>458800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>500400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>500000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>530100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>440000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>496800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>505400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>514900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>418300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>475200</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>480800</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1086,8 +1099,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1175,8 +1189,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1264,186 +1281,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E14" s="3">
         <v>22200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>32400</v>
       </c>
-      <c r="G14" s="3">
-        <v>30200</v>
-      </c>
       <c r="H14" s="3">
+        <v>20600</v>
+      </c>
+      <c r="I14" s="3">
         <v>27000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>9300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>23400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>14000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>23000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>35000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>43400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>38400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>16300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>18100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>600</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>900</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>6100</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>2600</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12600</v>
+        <v>18800</v>
       </c>
       <c r="E15" s="3">
         <v>12600</v>
       </c>
       <c r="F15" s="3">
+        <v>12600</v>
+      </c>
+      <c r="G15" s="3">
         <v>48300</v>
       </c>
-      <c r="G15" s="3">
-        <v>16800</v>
-      </c>
       <c r="H15" s="3">
-        <v>11600</v>
+        <v>12500</v>
       </c>
       <c r="I15" s="3">
         <v>11600</v>
       </c>
       <c r="J15" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K15" s="3">
         <v>46400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>15900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>16000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>16600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>10900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>10500</v>
-      </c>
-      <c r="P15" s="3">
-        <v>10300</v>
       </c>
       <c r="Q15" s="3">
         <v>10300</v>
       </c>
       <c r="R15" s="3">
+        <v>10300</v>
+      </c>
+      <c r="S15" s="3">
         <v>11400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>9900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>10100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>10000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>10800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>8900</v>
-      </c>
-      <c r="X15" s="3">
-        <v>8200</v>
       </c>
       <c r="Y15" s="3">
         <v>8200</v>
       </c>
       <c r="Z15" s="3">
+        <v>8200</v>
+      </c>
+      <c r="AA15" s="3">
         <v>8100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>7500</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>8000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>8100</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>7700</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1472,186 +1498,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1064700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1011100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>908200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3948700</v>
       </c>
-      <c r="G17" s="3">
-        <v>1772500</v>
-      </c>
       <c r="H17" s="3">
+        <v>1002800</v>
+      </c>
+      <c r="I17" s="3">
         <v>1035900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>960400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3990000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1699700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1641200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1522600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1426500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1411900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1202800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1247700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1278000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1291000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1304800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1192300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1280600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1233700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1240400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1135200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1219700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1149100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1156200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1071900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1135200</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1095900</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>196500</v>
+      </c>
+      <c r="E18" s="3">
         <v>152600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>131800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>774300</v>
       </c>
-      <c r="G18" s="3">
-        <v>281200</v>
-      </c>
       <c r="H18" s="3">
+        <v>192700</v>
+      </c>
+      <c r="I18" s="3">
         <v>219500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>179800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>811100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>286600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>294900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>248400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>233200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>240200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>173000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>155000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>192500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>168000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>202400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>135600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>140100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>147100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>188600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>119400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>162800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>199500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>209200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>114900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>166400</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>183100</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1683,453 +1716,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E20" s="3">
         <v>5200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>12000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
         <v>2100</v>
       </c>
-      <c r="H20" s="3">
-        <v>200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1300</v>
       </c>
       <c r="L20" s="3">
         <v>1300</v>
       </c>
       <c r="M20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N20" s="3">
         <v>-3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-31200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>9600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-7500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>800</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-1600</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>251300</v>
+      </c>
+      <c r="E21" s="3">
         <v>192000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>170000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>977900</v>
       </c>
-      <c r="G21" s="3">
-        <v>331900</v>
-      </c>
       <c r="H21" s="3">
+        <v>244100</v>
+      </c>
+      <c r="I21" s="3">
         <v>266600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>228800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>999800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>334100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>343700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>292800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>279700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>281600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>218300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>198600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>201300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>205000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>241300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>174600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>181300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>194200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>229900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>155700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>189300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>234000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>243700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>147500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>197800</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>212400</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E22" s="3">
         <v>27700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>26800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>119200</v>
       </c>
-      <c r="G22" s="3">
-        <v>33100</v>
-      </c>
       <c r="H22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="I22" s="3">
         <v>30500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>21700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>84300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>20600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>21200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>21400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>19500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>20100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>22200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>22100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>22400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>23600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>24500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>23700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>23400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>19000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>17400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>14700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>12900</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>12300</v>
       </c>
       <c r="AB22" s="3">
         <v>12300</v>
       </c>
       <c r="AC22" s="3">
+        <v>12300</v>
+      </c>
+      <c r="AD22" s="3">
         <v>11900</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>11600</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>172600</v>
+      </c>
+      <c r="E23" s="3">
         <v>130100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>111300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>667100</v>
       </c>
-      <c r="G23" s="3">
-        <v>250200</v>
-      </c>
       <c r="H23" s="3">
+        <v>162500</v>
+      </c>
+      <c r="I23" s="3">
         <v>189200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>160200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>726400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>267300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>275000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>223700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>213600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>222200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>156000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>139000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>138900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>144700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>178600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>113100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>117200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>137700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>174600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>107500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>142400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>189400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>199200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>103800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>153200</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>170700</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E24" s="3">
         <v>28000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>25700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>127200</v>
       </c>
-      <c r="G24" s="3">
-        <v>46000</v>
-      </c>
       <c r="H24" s="3">
+        <v>21100</v>
+      </c>
+      <c r="I24" s="3">
         <v>44900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>34000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>166700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>65200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>57800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>45900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>47100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>54000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>37800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>29900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>34900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>39000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>41500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>28600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>28700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>40900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>44900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>27000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>40100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>59800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>58900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>26400</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>48800</v>
       </c>
       <c r="AE24" s="3">
         <v>48800</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>48800</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2217,186 +2266,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>136500</v>
+      </c>
+      <c r="E26" s="3">
         <v>102100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>85600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>539900</v>
       </c>
-      <c r="G26" s="3">
-        <v>204200</v>
-      </c>
       <c r="H26" s="3">
+        <v>141400</v>
+      </c>
+      <c r="I26" s="3">
         <v>144300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>126200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>559700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>202100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>217200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>177800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>166500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>168200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>118200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>109100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>104000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>105700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>137100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>84500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>88500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>96800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>129700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>80500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>102300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>129600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>140300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>77400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>104400</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>136500</v>
+      </c>
+      <c r="E27" s="3">
         <v>102100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>85600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>539900</v>
       </c>
-      <c r="G27" s="3">
-        <v>204200</v>
-      </c>
       <c r="H27" s="3">
+        <v>141400</v>
+      </c>
+      <c r="I27" s="3">
         <v>144300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>126200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>559700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>202100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>217200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>177800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>163600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>164600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>115800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>109100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>104100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>105600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>137500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>84700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>88400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>96700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>129600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>80600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>102300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>129500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>140300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>77400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>104300</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>121900</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2484,8 +2542,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2493,31 +2554,31 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-1000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>146800</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H29" s="3">
+        <v>62800</v>
+      </c>
+      <c r="I29" s="3">
         <v>47700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>54700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>212700</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2525,14 +2586,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2544,37 +2605,40 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-3200</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>3100</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>25700</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
       <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC29" s="3" t="s">
+      <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>-700</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2662,8 +2726,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2751,186 +2818,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-12000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2100</v>
       </c>
-      <c r="H32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-1300</v>
       </c>
       <c r="L32" s="3">
         <v>-1300</v>
       </c>
       <c r="M32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N32" s="3">
         <v>3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>31200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-9600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>7500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-800</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>1600</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>136500</v>
+      </c>
+      <c r="E33" s="3">
         <v>102100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>84600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>686700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>204200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>192000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>180900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>772400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>202100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>217200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>177800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>163600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>164600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>115800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>109100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>104100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>105600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>137500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>84700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>85200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>99800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>129600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>75000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>128000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>129500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>137700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>77400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>103600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>123400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3018,191 +3094,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>136500</v>
+      </c>
+      <c r="E35" s="3">
         <v>102100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>84600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>686700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>204200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>192000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>180900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>772400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>202100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>217200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>177800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>163600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>164600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>115800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>109100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>104100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>105600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>137500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>84700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>85200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>99800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>129600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>75000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>128000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>129500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>137700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>77400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>103600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>123400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3234,8 +3319,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3267,97 +3353,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>453400</v>
+      </c>
+      <c r="E41" s="3">
         <v>681700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>539100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>642500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>345300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>360600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>378200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>471500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>460700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>460000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>356100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>419100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>464500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>398400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>359700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>387900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>336200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>276300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>281200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>262900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>389900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>345500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>244400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>323000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>277100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>252700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>210800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>251500</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>278600</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3445,364 +3535,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>578600</v>
+      </c>
+      <c r="E43" s="3">
         <v>621200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>559000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>521800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>936100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>998500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1011600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>885700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>921800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>844600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>828500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>734900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>765200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>657700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>678200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>624800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>640100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>706200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>650100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>571700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>635400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>657500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>631500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>555300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>594700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>595700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>564900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>550700</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>568800</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>930000</v>
+      </c>
+      <c r="E44" s="3">
         <v>954500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>931100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1021300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1502300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1446700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1334700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1193800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1128300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1046800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>958400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>867200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>738300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>732300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>703100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>718600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>758800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>741900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>737900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>678900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>684300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>627000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>619200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>580800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>600100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>581400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>558800</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>531100</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>562500</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>187700</v>
+      </c>
+      <c r="E45" s="3">
         <v>186200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>272000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>274800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>223900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>258000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>232200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>193500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>215200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>197500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>202900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>187300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>170000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>168900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>173000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>166900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>171600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>192500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>178800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>172600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>180600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>175500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>149400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>142600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>126400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>123300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>121600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>111900</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2149700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2443600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2301200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2460400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3007600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3063800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2956700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2744500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2726000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2548900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2345900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2208500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2138000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1957300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1914000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1898200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1906700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1916900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1848000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1686100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1890200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1805500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1644500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1601700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1598300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1553100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1456100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1445200</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1539700</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3890,186 +3995,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1052400</v>
+      </c>
+      <c r="E48" s="3">
         <v>980700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>917700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>902600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1274700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1266800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1248300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1201200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1134100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1107400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1084300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1087600</v>
-      </c>
-      <c r="O48" s="3">
-        <v>958600</v>
       </c>
       <c r="P48" s="3">
         <v>958600</v>
       </c>
       <c r="Q48" s="3">
+        <v>958600</v>
+      </c>
+      <c r="R48" s="3">
         <v>966900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>989800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>966200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>978100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>981100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>813400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>776300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>737600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>742800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>740000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>690600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>675600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>665700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>662500</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>642900</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3304200</v>
+      </c>
+      <c r="E49" s="3">
         <v>3332200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2634300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2641500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3922100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3814200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3870000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3848900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3867900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3891200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3900500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3815100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3196400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3199300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3219200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3259100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3271000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3314900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3323700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3327100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3397100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3055700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>3069900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>3074400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2958200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2925300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2930100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2940800</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>2948900</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4157,8 +4271,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4246,97 +4363,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>111800</v>
+      </c>
+      <c r="E52" s="3">
         <v>116700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>119500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>116400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>211200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>189300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>168000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>141600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>140800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>148500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>151400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>247500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>226000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>217100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>200000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>144200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>141700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>133500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>136400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>138000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>106100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>98300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>94800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>95300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>102200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>99400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>82200</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>80000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>81100</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4424,97 +4547,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6618100</v>
+      </c>
+      <c r="E54" s="3">
         <v>6873200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5972700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6120900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8415600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8334100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8243000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7936200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7868800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7696000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7482100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7358700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6519000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6332300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6300100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6291300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6285600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6343400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6289200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5964600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6169700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5697100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5552000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5511400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5349300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5253400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>5134100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>5128500</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>5212600</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4546,8 +4675,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4579,123 +4709,127 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>570400</v>
+      </c>
+      <c r="E57" s="3">
         <v>489500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>423700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>421600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>672600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>756300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>728100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>764900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>735700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>697500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>599200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>620500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>544100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>463900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>426400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>460000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>436500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>476600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>442000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>459000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>437700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>428700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>417100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>428800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>392500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>397000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>378900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>393800</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>361900</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>599800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>599500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>599200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>600300</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>400000</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -4703,8 +4837,8 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4713,34 +4847,34 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>399900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>399700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>399500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>749300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>350000</v>
-      </c>
-      <c r="V58" s="3">
-        <v>525000</v>
       </c>
       <c r="W58" s="3">
         <v>525000</v>
       </c>
       <c r="X58" s="3">
-        <v>350000</v>
+        <v>525000</v>
       </c>
       <c r="Y58" s="3">
         <v>350000</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>8</v>
+      <c r="Z58" s="3">
+        <v>350000</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>8</v>
@@ -4751,370 +4885,385 @@
       <c r="AC58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD58" s="3">
-        <v>0</v>
+      <c r="AD58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>621700</v>
+      </c>
+      <c r="E59" s="3">
         <v>551400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>390000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>523900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>775000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>685200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>626700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>806200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>793100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>667200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>597800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>724600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>590900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>488900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>419800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>549600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>540600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>469300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>446800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>508100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>488900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>451800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>373700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>478000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>460000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>394100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>328900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>449000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>414800</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1192100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1640700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1413200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1544700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2047900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1441500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1354800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1971100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1528800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1364700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1197000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1345100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1135000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>952800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1246100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1409300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1376600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1695200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1238800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1492100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1451600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1230500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1140800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>906800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>852500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>791100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>707800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>842800</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>776700</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2829300</v>
+      </c>
+      <c r="E61" s="3">
         <v>2668500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2074900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2074300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2786900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3357900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3367900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2309800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2629100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2608300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2682800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2572200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2086500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2245900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2035200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1784600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1949000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1666000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2169700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1809000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1988400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1793300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1538000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1507600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1462200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1391900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1491500</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1431100</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>1585800</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>377700</v>
+      </c>
+      <c r="E62" s="3">
         <v>386900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>402100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>415000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>550700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>582300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>605500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>590500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>656300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>679500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>677900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>665900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>668900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>670500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>660900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>669600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>623300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>637500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>633600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>483500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>496100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>498600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>514900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>495900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>488700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>501700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>504100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>491600</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>489900</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5202,8 +5351,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5291,8 +5443,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5380,97 +5535,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4399100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4696100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3890200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4034000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5385500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5381700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5328200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4871400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4814200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4652500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4557700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4583200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3890400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3870500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3943100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3864700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3950200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3999900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4043700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3786400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3937800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3524000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3195200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2911900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2805000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2686200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2704900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>2767000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>2853800</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5502,8 +5663,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5591,8 +5753,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5680,8 +5845,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5769,8 +5937,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5858,97 +6029,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2554200</v>
+      </c>
+      <c r="E72" s="3">
         <v>2475400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2402400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2323800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3277000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3145000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2989400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2807900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2670000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2539300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2358000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2180200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2052700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1954700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1872100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1763000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1692500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1648100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1541400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1448100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1393400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1350500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1249900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1174200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1076500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1002000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>892000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>814600</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>738400</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6036,8 +6213,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6125,8 +6305,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6214,97 +6397,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2219000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2177100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2082500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2086900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3030100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2952400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2914800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3064800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3054600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3043500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2924400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2775500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2628600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2461800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2357000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2426600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2335400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2343500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2245500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2178200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2231900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2173100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2356800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2599500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2544300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2567200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2429200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2361500</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>2358800</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6392,191 +6581,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>136500</v>
+      </c>
+      <c r="E81" s="3">
         <v>102100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>84600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>686700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>204200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>192000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>180900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>772400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>202100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>217200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>177800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>163600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>164600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>115800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>109100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>104100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>105600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>137500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>84700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>85200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>99800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>129600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>75000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>128000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>129500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>137700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>77400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>103600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>123400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6608,97 +6806,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E83" s="3">
         <v>34200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>31900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>191600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>48600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>46900</v>
       </c>
       <c r="I83" s="3">
         <v>46900</v>
       </c>
       <c r="J83" s="3">
+        <v>46900</v>
+      </c>
+      <c r="K83" s="3">
         <v>189100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>46200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>47500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>47700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>46600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>39300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>40100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>37500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>40000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>36700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>38200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>37800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>40700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>37500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>37900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>33500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>34000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>32300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>32200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>31800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>33000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6786,8 +6988,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6875,8 +7080,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6964,8 +7172,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7053,8 +7264,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7142,97 +7356,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>332000</v>
+      </c>
+      <c r="E89" s="3">
         <v>427500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>76100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>566300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>246900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>225000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-183100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>688700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>168100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>331900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-69200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>318900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>246300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>274300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-13800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>283400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>241800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>201700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-89700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>260300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>206400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>189200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-51900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>247700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>181400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>189100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-17900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>269900</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>215600</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7264,97 +7484,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-69600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-42600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-71000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-59500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-54800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-60800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-101200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-47200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-40400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-84300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-26900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-49400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-27500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-27700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-27200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-43600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-39300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-29600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-37600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-69500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-36000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-30000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-29500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-43200</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-31400</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7442,8 +7666,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7531,97 +7758,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-65700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-848700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-42600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-455500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-211800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-54800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-114400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-207100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-47200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-40400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-799400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-23900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-77000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-49500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-27300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-25500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-25300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-65900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-496100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-29600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-42700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-174500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-55100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-28500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-29600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-50800</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-178700</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7653,97 +7886,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-29100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-29500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-145600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-36200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-36400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-37200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-143000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-35900</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-36000</v>
       </c>
       <c r="M96" s="3">
         <v>-36000</v>
       </c>
       <c r="N96" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-33400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-33300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-33100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-33500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-30700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-30600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-30700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-31000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-28100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-28500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-29000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-29600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-27600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-27400</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-27700</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-27600</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-24500</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-24700</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7831,8 +8068,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7920,8 +8160,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8009,271 +8252,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-488400</v>
+      </c>
+      <c r="E100" s="3">
         <v>567100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-139300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>72500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-36000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-176100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>203200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-428600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-115700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-192200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>22800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>420400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-166600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-219500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>77300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-187800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-148900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-182400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>129400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-314200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>342600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-51400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>16200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-26600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-108300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-121200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>6000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-240900</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-35700</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-11100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-14700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-12000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>14400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>9900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-15000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-6100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-7400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-7100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>6400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>2500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>800</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-5300</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-227700</v>
+      </c>
+      <c r="E102" s="3">
         <v>141600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-103600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>172200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-15600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-17900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-93600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>51100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>103500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-63200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-45700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>65700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>38600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-28500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>51600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>59500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>18200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-127200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>52400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>101100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-78600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>45900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>24400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>41900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-40700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-27100</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-100</v>
       </c>
     </row>
